--- a/salida/reportes_Integral_valorizada.xlsx
+++ b/salida/reportes_Integral_valorizada.xlsx
@@ -18542,19 +18542,19 @@
         <v>0</v>
       </c>
       <c r="AE135">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="AF135">
-        <v>1458</v>
+        <v>162</v>
       </c>
       <c r="AG135">
         <v>0</v>
       </c>
       <c r="AH135">
-        <v>2755.376999999999</v>
+        <v>306.153</v>
       </c>
       <c r="AI135">
-        <v>19407.438</v>
+        <v>2156.382</v>
       </c>
       <c r="AJ135">
         <v>0</v>
@@ -18658,19 +18658,19 @@
         <v>0</v>
       </c>
       <c r="AE136">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="AF136">
-        <v>720</v>
+        <v>72</v>
       </c>
       <c r="AG136">
         <v>0</v>
       </c>
       <c r="AH136">
-        <v>2474.664075</v>
+        <v>247.4664075</v>
       </c>
       <c r="AI136">
-        <v>11878.38756</v>
+        <v>1187.838756</v>
       </c>
       <c r="AJ136">
         <v>0</v>
@@ -18774,19 +18774,19 @@
         <v>0</v>
       </c>
       <c r="AE137">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="AF137">
-        <v>832</v>
+        <v>52</v>
       </c>
       <c r="AG137">
         <v>0</v>
       </c>
       <c r="AH137">
-        <v>8798.69952</v>
+        <v>549.91872</v>
       </c>
       <c r="AI137">
-        <v>7148.94336</v>
+        <v>446.80896</v>
       </c>
       <c r="AJ137">
         <v>0</v>
@@ -18890,19 +18890,19 @@
         <v>0</v>
       </c>
       <c r="AE138">
-        <v>3302</v>
+        <v>127</v>
       </c>
       <c r="AF138">
-        <v>27950</v>
+        <v>1075</v>
       </c>
       <c r="AG138">
         <v>0</v>
       </c>
       <c r="AH138">
-        <v>35442.10945599999</v>
+        <v>1363.158056</v>
       </c>
       <c r="AI138">
-        <v>300002.1075999999</v>
+        <v>11538.5426</v>
       </c>
       <c r="AJ138">
         <v>0</v>
@@ -19006,19 +19006,19 @@
         <v>0</v>
       </c>
       <c r="AE139">
-        <v>923</v>
+        <v>71</v>
       </c>
       <c r="AF139">
-        <v>2067</v>
+        <v>159</v>
       </c>
       <c r="AG139">
         <v>0</v>
       </c>
       <c r="AH139">
-        <v>15083.318952</v>
+        <v>1160.255304</v>
       </c>
       <c r="AI139">
-        <v>33778.136808</v>
+        <v>2598.318216</v>
       </c>
       <c r="AJ139">
         <v>0</v>
@@ -19122,19 +19122,19 @@
         <v>0</v>
       </c>
       <c r="AE140">
-        <v>5670</v>
+        <v>315</v>
       </c>
       <c r="AF140">
-        <v>4158</v>
+        <v>231</v>
       </c>
       <c r="AG140">
         <v>0</v>
       </c>
       <c r="AH140">
-        <v>46027.333485</v>
+        <v>2557.0740825</v>
       </c>
       <c r="AI140">
-        <v>33753.377889</v>
+        <v>1875.1876605</v>
       </c>
       <c r="AJ140">
         <v>0</v>
@@ -19238,10 +19238,10 @@
         <v>0</v>
       </c>
       <c r="AE141">
-        <v>2835</v>
+        <v>189</v>
       </c>
       <c r="AF141">
-        <v>7800</v>
+        <v>520</v>
       </c>
       <c r="AG141">
         <v>0</v>
@@ -19354,19 +19354,19 @@
         <v>0</v>
       </c>
       <c r="AE142">
-        <v>1424</v>
+        <v>89</v>
       </c>
       <c r="AF142">
-        <v>4032</v>
+        <v>252</v>
       </c>
       <c r="AG142">
         <v>0</v>
       </c>
       <c r="AH142">
-        <v>17785.76</v>
+        <v>1111.61</v>
       </c>
       <c r="AI142">
-        <v>50359.68</v>
+        <v>3147.48</v>
       </c>
       <c r="AJ142">
         <v>0</v>
@@ -19470,10 +19470,10 @@
         <v>0</v>
       </c>
       <c r="AE143">
-        <v>11823</v>
+        <v>563</v>
       </c>
       <c r="AF143">
-        <v>22722</v>
+        <v>1082</v>
       </c>
       <c r="AG143">
         <v>0</v>
@@ -19586,19 +19586,19 @@
         <v>0</v>
       </c>
       <c r="AE144">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="AF144">
-        <v>765</v>
+        <v>153</v>
       </c>
       <c r="AG144">
         <v>0</v>
       </c>
       <c r="AH144">
-        <v>3536.111519999999</v>
+        <v>707.2223039999999</v>
       </c>
       <c r="AI144">
-        <v>10608.33456</v>
+        <v>2121.666912</v>
       </c>
       <c r="AJ144">
         <v>0</v>
@@ -19702,10 +19702,10 @@
         <v>0</v>
       </c>
       <c r="AE145">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="AF145">
-        <v>688</v>
+        <v>86</v>
       </c>
       <c r="AG145">
         <v>0</v>
@@ -19818,19 +19818,19 @@
         <v>0</v>
       </c>
       <c r="AE146">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AF146">
-        <v>560</v>
+        <v>140</v>
       </c>
       <c r="AG146">
         <v>0</v>
       </c>
       <c r="AH146">
-        <v>515</v>
+        <v>128.75</v>
       </c>
       <c r="AI146">
-        <v>2884</v>
+        <v>721</v>
       </c>
       <c r="AJ146">
         <v>0</v>
@@ -19934,10 +19934,10 @@
         <v>0</v>
       </c>
       <c r="AE147">
-        <v>20285</v>
+        <v>2739</v>
       </c>
       <c r="AF147">
-        <v>24307</v>
+        <v>2417</v>
       </c>
       <c r="AG147">
         <v>0</v>
@@ -20050,19 +20050,19 @@
         <v>0</v>
       </c>
       <c r="AE148">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="AF148">
-        <v>692</v>
+        <v>173</v>
       </c>
       <c r="AG148">
         <v>0</v>
       </c>
       <c r="AH148">
-        <v>3699.45296</v>
+        <v>924.8632399999999</v>
       </c>
       <c r="AI148">
-        <v>6530.66696</v>
+        <v>1632.66674</v>
       </c>
       <c r="AJ148">
         <v>0</v>
@@ -20166,19 +20166,19 @@
         <v>0</v>
       </c>
       <c r="AE149">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="AF149">
-        <v>1376</v>
+        <v>172</v>
       </c>
       <c r="AG149">
         <v>0</v>
       </c>
       <c r="AH149">
-        <v>1113.688224</v>
+        <v>139.211028</v>
       </c>
       <c r="AI149">
-        <v>5320.954847999999</v>
+        <v>665.1193559999999</v>
       </c>
       <c r="AJ149">
         <v>0</v>
@@ -20282,19 +20282,19 @@
         <v>0</v>
       </c>
       <c r="AE150">
-        <v>684</v>
+        <v>76</v>
       </c>
       <c r="AF150">
-        <v>1026</v>
+        <v>114</v>
       </c>
       <c r="AG150">
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>3700.44</v>
+        <v>411.16</v>
       </c>
       <c r="AI150">
-        <v>5550.66</v>
+        <v>616.74</v>
       </c>
       <c r="AJ150">
         <v>0</v>
@@ -20398,19 +20398,19 @@
         <v>0</v>
       </c>
       <c r="AE151">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="AF151">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="AG151">
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>638.6678999999999</v>
+        <v>319.33395</v>
       </c>
       <c r="AI151">
-        <v>2196.1212</v>
+        <v>1098.0606</v>
       </c>
       <c r="AJ151">
         <v>0</v>
@@ -20514,19 +20514,19 @@
         <v>0</v>
       </c>
       <c r="AE152">
-        <v>2976</v>
+        <v>186</v>
       </c>
       <c r="AF152">
-        <v>2192</v>
+        <v>137</v>
       </c>
       <c r="AG152">
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>7045.239551999998</v>
+        <v>440.3274719999999</v>
       </c>
       <c r="AI152">
-        <v>5189.235583999999</v>
+        <v>324.3272239999999</v>
       </c>
       <c r="AJ152">
         <v>0</v>
@@ -20630,10 +20630,10 @@
         <v>0</v>
       </c>
       <c r="AE153">
-        <v>5344</v>
+        <v>334</v>
       </c>
       <c r="AF153">
-        <v>6896</v>
+        <v>431</v>
       </c>
       <c r="AG153">
         <v>0</v>
@@ -20746,19 +20746,19 @@
         <v>0</v>
       </c>
       <c r="AE154">
-        <v>6860</v>
+        <v>343</v>
       </c>
       <c r="AF154">
-        <v>9660</v>
+        <v>483</v>
       </c>
       <c r="AG154">
         <v>0</v>
       </c>
       <c r="AH154">
-        <v>24905.95029999999</v>
+        <v>1245.297515</v>
       </c>
       <c r="AI154">
-        <v>35071.64429999999</v>
+        <v>1753.582215</v>
       </c>
       <c r="AJ154">
         <v>0</v>
@@ -20862,19 +20862,19 @@
         <v>0</v>
       </c>
       <c r="AE155">
-        <v>26496</v>
+        <v>828</v>
       </c>
       <c r="AF155">
-        <v>16192</v>
+        <v>506</v>
       </c>
       <c r="AG155">
         <v>0</v>
       </c>
       <c r="AH155">
-        <v>55347.057216</v>
+        <v>1729.595538</v>
       </c>
       <c r="AI155">
-        <v>33823.201632</v>
+        <v>1056.975051</v>
       </c>
       <c r="AJ155">
         <v>0</v>
@@ -20978,19 +20978,19 @@
         <v>0</v>
       </c>
       <c r="AE156">
-        <v>804</v>
+        <v>67</v>
       </c>
       <c r="AF156">
-        <v>1212</v>
+        <v>101</v>
       </c>
       <c r="AG156">
         <v>0</v>
       </c>
       <c r="AH156">
-        <v>5200.84485</v>
+        <v>433.4037375</v>
       </c>
       <c r="AI156">
-        <v>7840.07955</v>
+        <v>653.3399625000001</v>
       </c>
       <c r="AJ156">
         <v>0</v>
@@ -21094,19 +21094,19 @@
         <v>0</v>
       </c>
       <c r="AE157">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="AF157">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="AG157">
         <v>0</v>
       </c>
       <c r="AH157">
-        <v>3544.4439</v>
+        <v>354.44439</v>
       </c>
       <c r="AI157">
-        <v>4135.18455</v>
+        <v>413.518455</v>
       </c>
       <c r="AJ157">
         <v>0</v>
@@ -21210,19 +21210,19 @@
         <v>0</v>
       </c>
       <c r="AE158">
-        <v>7644</v>
+        <v>294</v>
       </c>
       <c r="AF158">
-        <v>9958</v>
+        <v>383</v>
       </c>
       <c r="AG158">
         <v>0</v>
       </c>
       <c r="AH158">
-        <v>33468.887088</v>
+        <v>1287.264888</v>
       </c>
       <c r="AI158">
-        <v>43600.62501599999</v>
+        <v>1676.947116</v>
       </c>
       <c r="AJ158">
         <v>0</v>
@@ -21326,19 +21326,19 @@
         <v>0</v>
       </c>
       <c r="AE159">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="AF159">
-        <v>4848</v>
+        <v>303</v>
       </c>
       <c r="AG159">
         <v>0</v>
       </c>
       <c r="AH159">
-        <v>1658.88</v>
+        <v>103.68</v>
       </c>
       <c r="AI159">
-        <v>13962.24</v>
+        <v>872.64</v>
       </c>
       <c r="AJ159">
         <v>0</v>
@@ -21442,19 +21442,19 @@
         <v>0</v>
       </c>
       <c r="AE160">
-        <v>392</v>
+        <v>56</v>
       </c>
       <c r="AF160">
-        <v>602</v>
+        <v>86</v>
       </c>
       <c r="AG160">
         <v>0</v>
       </c>
       <c r="AH160">
-        <v>3590.72</v>
+        <v>512.96</v>
       </c>
       <c r="AI160">
-        <v>5514.32</v>
+        <v>787.76</v>
       </c>
       <c r="AJ160">
         <v>0</v>
@@ -21558,19 +21558,19 @@
         <v>0</v>
       </c>
       <c r="AE161">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AF161">
-        <v>1460</v>
+        <v>146</v>
       </c>
       <c r="AG161">
         <v>0</v>
       </c>
       <c r="AH161">
-        <v>1946.7448</v>
+        <v>194.67448</v>
       </c>
       <c r="AI161">
-        <v>6459.6532</v>
+        <v>645.9653199999999</v>
       </c>
       <c r="AJ161">
         <v>0</v>
@@ -21674,10 +21674,10 @@
         <v>0</v>
       </c>
       <c r="AE162">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="AF162">
-        <v>924</v>
+        <v>154</v>
       </c>
       <c r="AG162">
         <v>0</v>
@@ -21790,19 +21790,19 @@
         <v>0</v>
       </c>
       <c r="AE163">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="AF163">
-        <v>2790</v>
+        <v>310</v>
       </c>
       <c r="AG163">
         <v>0</v>
       </c>
       <c r="AH163">
-        <v>1965.080286</v>
+        <v>218.342254</v>
       </c>
       <c r="AI163">
-        <v>16464.18618</v>
+        <v>1829.35402</v>
       </c>
       <c r="AJ163">
         <v>0</v>
@@ -21906,19 +21906,19 @@
         <v>0</v>
       </c>
       <c r="AE164">
-        <v>3485</v>
+        <v>205</v>
       </c>
       <c r="AF164">
-        <v>3978</v>
+        <v>234</v>
       </c>
       <c r="AG164">
         <v>0</v>
       </c>
       <c r="AH164">
-        <v>15619.3518</v>
+        <v>918.7853999999999</v>
       </c>
       <c r="AI164">
-        <v>17828.91864</v>
+        <v>1048.75992</v>
       </c>
       <c r="AJ164">
         <v>0</v>
@@ -22022,19 +22022,19 @@
         <v>0</v>
       </c>
       <c r="AE165">
-        <v>952</v>
+        <v>56</v>
       </c>
       <c r="AF165">
-        <v>7854</v>
+        <v>462</v>
       </c>
       <c r="AG165">
         <v>0</v>
       </c>
       <c r="AH165">
-        <v>2937.493104</v>
+        <v>172.793712</v>
       </c>
       <c r="AI165">
-        <v>24234.318108</v>
+        <v>1425.548124</v>
       </c>
       <c r="AJ165">
         <v>0</v>
@@ -22138,19 +22138,19 @@
         <v>0</v>
       </c>
       <c r="AE166">
-        <v>13968</v>
+        <v>388</v>
       </c>
       <c r="AF166">
-        <v>33984</v>
+        <v>944</v>
       </c>
       <c r="AG166">
         <v>0</v>
       </c>
       <c r="AH166">
-        <v>41494.48617599999</v>
+        <v>1152.624616</v>
       </c>
       <c r="AI166">
-        <v>100955.657088</v>
+        <v>2804.323808</v>
       </c>
       <c r="AJ166">
         <v>0</v>
@@ -22254,19 +22254,19 @@
         <v>0</v>
       </c>
       <c r="AE167">
-        <v>5712</v>
+        <v>204</v>
       </c>
       <c r="AF167">
-        <v>26852</v>
+        <v>959</v>
       </c>
       <c r="AG167">
         <v>0</v>
       </c>
       <c r="AH167">
-        <v>116346.031536</v>
+        <v>4155.215412</v>
       </c>
       <c r="AI167">
-        <v>546940.412956</v>
+        <v>19533.586177</v>
       </c>
       <c r="AJ167">
         <v>0</v>
@@ -22370,19 +22370,19 @@
         <v>0</v>
       </c>
       <c r="AE168">
-        <v>770</v>
+        <v>55</v>
       </c>
       <c r="AF168">
-        <v>1708</v>
+        <v>122</v>
       </c>
       <c r="AG168">
         <v>0</v>
       </c>
       <c r="AH168">
-        <v>9255.4</v>
+        <v>661.1</v>
       </c>
       <c r="AI168">
-        <v>20530.16</v>
+        <v>1466.44</v>
       </c>
       <c r="AJ168">
         <v>0</v>
@@ -22486,19 +22486,19 @@
         <v>0</v>
       </c>
       <c r="AE169">
-        <v>386</v>
+        <v>193</v>
       </c>
       <c r="AF169">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AG169">
         <v>0</v>
       </c>
       <c r="AH169">
-        <v>2144.277864</v>
+        <v>1072.138932</v>
       </c>
       <c r="AI169">
-        <v>1199.906784</v>
+        <v>599.953392</v>
       </c>
       <c r="AJ169">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="AE172">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="AF172">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AG172">
         <v>0</v>
       </c>
       <c r="AH172">
-        <v>1645.9539825</v>
+        <v>548.6513275</v>
       </c>
       <c r="AI172">
-        <v>140.08119</v>
+        <v>46.69373</v>
       </c>
       <c r="AJ172">
         <v>0</v>
@@ -23182,19 +23182,19 @@
         <v>0</v>
       </c>
       <c r="AE175">
-        <v>157241</v>
+        <v>3209</v>
       </c>
       <c r="AF175">
-        <v>293020</v>
+        <v>5980</v>
       </c>
       <c r="AG175">
         <v>0</v>
       </c>
       <c r="AH175">
-        <v>823094.6820459999</v>
+        <v>16797.850654</v>
       </c>
       <c r="AI175">
-        <v>1533844.25012</v>
+        <v>31302.94388</v>
       </c>
       <c r="AJ175">
         <v>0</v>
@@ -23298,19 +23298,19 @@
         <v>0</v>
       </c>
       <c r="AE176">
-        <v>3564</v>
+        <v>132</v>
       </c>
       <c r="AF176">
-        <v>12015</v>
+        <v>445</v>
       </c>
       <c r="AG176">
         <v>0</v>
       </c>
       <c r="AH176">
-        <v>27106.586496</v>
+        <v>1003.947648</v>
       </c>
       <c r="AI176">
-        <v>91382.05295999999</v>
+        <v>3384.52048</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -23414,19 +23414,19 @@
         <v>0</v>
       </c>
       <c r="AE177">
-        <v>2889</v>
+        <v>107</v>
       </c>
       <c r="AF177">
-        <v>10827</v>
+        <v>401</v>
       </c>
       <c r="AG177">
         <v>0</v>
       </c>
       <c r="AH177">
-        <v>78637.03438499998</v>
+        <v>2912.482754999999</v>
       </c>
       <c r="AI177">
-        <v>294705.1475549999</v>
+        <v>10915.005465</v>
       </c>
       <c r="AJ177">
         <v>0</v>
@@ -23530,19 +23530,19 @@
         <v>0</v>
       </c>
       <c r="AE178">
-        <v>5760</v>
+        <v>240</v>
       </c>
       <c r="AF178">
-        <v>66408</v>
+        <v>2767</v>
       </c>
       <c r="AG178">
         <v>0</v>
       </c>
       <c r="AH178">
-        <v>69305.03423999999</v>
+        <v>2887.709759999999</v>
       </c>
       <c r="AI178">
-        <v>799029.2905919999</v>
+        <v>33292.887108</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -23646,19 +23646,19 @@
         <v>0</v>
       </c>
       <c r="AE179">
-        <v>3168</v>
+        <v>176</v>
       </c>
       <c r="AF179">
-        <v>1962</v>
+        <v>109</v>
       </c>
       <c r="AG179">
         <v>0</v>
       </c>
       <c r="AH179">
-        <v>31382.53747199999</v>
+        <v>1743.474304</v>
       </c>
       <c r="AI179">
-        <v>19435.776048</v>
+        <v>1079.765336</v>
       </c>
       <c r="AJ179">
         <v>0</v>
@@ -23762,19 +23762,19 @@
         <v>0</v>
       </c>
       <c r="AE180">
-        <v>9009</v>
+        <v>273</v>
       </c>
       <c r="AF180">
-        <v>6666</v>
+        <v>202</v>
       </c>
       <c r="AG180">
         <v>0</v>
       </c>
       <c r="AH180">
-        <v>210324.095982</v>
+        <v>6373.457453999999</v>
       </c>
       <c r="AI180">
-        <v>155624.422668</v>
+        <v>4715.891595999999</v>
       </c>
       <c r="AJ180">
         <v>0</v>
@@ -23878,19 +23878,19 @@
         <v>0</v>
       </c>
       <c r="AE181">
-        <v>486</v>
+        <v>27</v>
       </c>
       <c r="AF181">
-        <v>4644</v>
+        <v>258</v>
       </c>
       <c r="AG181">
         <v>0</v>
       </c>
       <c r="AH181">
-        <v>7978.621661999998</v>
+        <v>443.2567589999999</v>
       </c>
       <c r="AI181">
-        <v>76240.16254799998</v>
+        <v>4235.564585999999</v>
       </c>
       <c r="AJ181">
         <v>0</v>
@@ -23994,19 +23994,19 @@
         <v>0</v>
       </c>
       <c r="AE182">
-        <v>1111</v>
+        <v>101</v>
       </c>
       <c r="AF182">
-        <v>539</v>
+        <v>49</v>
       </c>
       <c r="AG182">
         <v>0</v>
       </c>
       <c r="AH182">
-        <v>3740.910316</v>
+        <v>340.082756</v>
       </c>
       <c r="AI182">
-        <v>1814.897084</v>
+        <v>164.990644</v>
       </c>
       <c r="AJ182">
         <v>0</v>
@@ -24110,19 +24110,19 @@
         <v>0</v>
       </c>
       <c r="AE183">
-        <v>19629</v>
+        <v>727</v>
       </c>
       <c r="AF183">
-        <v>143829</v>
+        <v>5327</v>
       </c>
       <c r="AG183">
         <v>0</v>
       </c>
       <c r="AH183">
-        <v>118653.222168</v>
+        <v>4394.563783999999</v>
       </c>
       <c r="AI183">
-        <v>869416.3885679998</v>
+        <v>32200.60698399999</v>
       </c>
       <c r="AJ183">
         <v>0</v>
@@ -24226,19 +24226,19 @@
         <v>0</v>
       </c>
       <c r="AE184">
-        <v>2358</v>
+        <v>262</v>
       </c>
       <c r="AF184">
-        <v>1701</v>
+        <v>189</v>
       </c>
       <c r="AG184">
         <v>0</v>
       </c>
       <c r="AH184">
-        <v>5514.470675999999</v>
+        <v>612.7189639999999</v>
       </c>
       <c r="AI184">
-        <v>3977.996021999999</v>
+        <v>441.9995579999999</v>
       </c>
       <c r="AJ184">
         <v>0</v>
@@ -24342,19 +24342,19 @@
         <v>0</v>
       </c>
       <c r="AE185">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AF185">
-        <v>1395</v>
+        <v>279</v>
       </c>
       <c r="AG185">
         <v>0</v>
       </c>
       <c r="AH185">
-        <v>493.3515599999999</v>
+        <v>98.670312</v>
       </c>
       <c r="AI185">
-        <v>1699.32204</v>
+        <v>339.864408</v>
       </c>
       <c r="AJ185">
         <v>0</v>
@@ -24458,19 +24458,19 @@
         <v>0</v>
       </c>
       <c r="AE186">
-        <v>533</v>
+        <v>41</v>
       </c>
       <c r="AF186">
-        <v>3900</v>
+        <v>300</v>
       </c>
       <c r="AG186">
         <v>0</v>
       </c>
       <c r="AH186">
-        <v>9854.3172</v>
+        <v>758.0243999999999</v>
       </c>
       <c r="AI186">
-        <v>72104.75999999999</v>
+        <v>5546.52</v>
       </c>
       <c r="AJ186">
         <v>0</v>
@@ -24574,19 +24574,19 @@
         <v>0</v>
       </c>
       <c r="AE187">
-        <v>42988</v>
+        <v>1954</v>
       </c>
       <c r="AF187">
-        <v>153098</v>
+        <v>6959</v>
       </c>
       <c r="AG187">
         <v>0</v>
       </c>
       <c r="AH187">
-        <v>228977.387496</v>
+        <v>10408.063068</v>
       </c>
       <c r="AI187">
-        <v>815482.9271159999</v>
+        <v>37067.40577799999</v>
       </c>
       <c r="AJ187">
         <v>0</v>
@@ -24690,10 +24690,10 @@
         <v>0</v>
       </c>
       <c r="AE188">
-        <v>12650</v>
+        <v>550</v>
       </c>
       <c r="AF188">
-        <v>29256</v>
+        <v>1272</v>
       </c>
       <c r="AG188">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="AE189">
-        <v>20851</v>
+        <v>719</v>
       </c>
       <c r="AF189">
-        <v>38222</v>
+        <v>1318</v>
       </c>
       <c r="AG189">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="AE190">
-        <v>3190</v>
+        <v>319</v>
       </c>
       <c r="AF190">
-        <v>7510</v>
+        <v>751</v>
       </c>
       <c r="AG190">
         <v>0</v>
       </c>
       <c r="AH190">
-        <v>3464.32086</v>
+        <v>346.432086</v>
       </c>
       <c r="AI190">
-        <v>8155.814939999999</v>
+        <v>815.5814939999999</v>
       </c>
       <c r="AJ190">
         <v>0</v>
@@ -25154,19 +25154,19 @@
         <v>0</v>
       </c>
       <c r="AE192">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="AF192">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AG192">
         <v>0</v>
       </c>
       <c r="AH192">
-        <v>863.3652299999999</v>
+        <v>123.33789</v>
       </c>
       <c r="AI192">
-        <v>639.5297999999999</v>
+        <v>91.36139999999999</v>
       </c>
       <c r="AJ192">
         <v>0</v>
@@ -25270,19 +25270,19 @@
         <v>0</v>
       </c>
       <c r="AE193">
-        <v>2464</v>
+        <v>112</v>
       </c>
       <c r="AF193">
-        <v>2002</v>
+        <v>91</v>
       </c>
       <c r="AG193">
         <v>0</v>
       </c>
       <c r="AH193">
-        <v>22368.443328</v>
+        <v>1016.747424</v>
       </c>
       <c r="AI193">
-        <v>18174.360204</v>
+        <v>826.1072819999999</v>
       </c>
       <c r="AJ193">
         <v>0</v>
@@ -25386,19 +25386,19 @@
         <v>0</v>
       </c>
       <c r="AE194">
-        <v>742</v>
+        <v>53</v>
       </c>
       <c r="AF194">
-        <v>12320</v>
+        <v>880</v>
       </c>
       <c r="AG194">
         <v>0</v>
       </c>
       <c r="AH194">
-        <v>9456.513975999998</v>
+        <v>675.4652839999999</v>
       </c>
       <c r="AI194">
-        <v>157013.81696</v>
+        <v>11215.27264</v>
       </c>
       <c r="AJ194">
         <v>0</v>
@@ -25502,19 +25502,19 @@
         <v>0</v>
       </c>
       <c r="AE195">
-        <v>2432</v>
+        <v>128</v>
       </c>
       <c r="AF195">
-        <v>13243</v>
+        <v>697</v>
       </c>
       <c r="AG195">
         <v>0</v>
       </c>
       <c r="AH195">
-        <v>24035.74784</v>
+        <v>1265.03936</v>
       </c>
       <c r="AI195">
-        <v>130882.15816</v>
+        <v>6888.534639999999</v>
       </c>
       <c r="AJ195">
         <v>0</v>
@@ -25618,19 +25618,19 @@
         <v>0</v>
       </c>
       <c r="AE196">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="AF196">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="AG196">
         <v>0</v>
       </c>
       <c r="AH196">
-        <v>683.4522239999999</v>
+        <v>113.908704</v>
       </c>
       <c r="AI196">
-        <v>1452.335976</v>
+        <v>242.055996</v>
       </c>
       <c r="AJ196">
         <v>0</v>
@@ -25734,19 +25734,19 @@
         <v>0</v>
       </c>
       <c r="AE197">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="AF197">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="AG197">
         <v>0</v>
       </c>
       <c r="AH197">
-        <v>1132.2</v>
+        <v>188.7</v>
       </c>
       <c r="AI197">
-        <v>2797.2</v>
+        <v>466.2</v>
       </c>
       <c r="AJ197">
         <v>0</v>
@@ -25850,19 +25850,19 @@
         <v>0</v>
       </c>
       <c r="AE198">
-        <v>4607</v>
+        <v>271</v>
       </c>
       <c r="AF198">
-        <v>12036</v>
+        <v>708</v>
       </c>
       <c r="AG198">
         <v>0</v>
       </c>
       <c r="AH198">
-        <v>14965.507796</v>
+        <v>880.3239880000001</v>
       </c>
       <c r="AI198">
-        <v>39098.07940800001</v>
+        <v>2299.887024000001</v>
       </c>
       <c r="AJ198">
         <v>0</v>
@@ -25966,19 +25966,19 @@
         <v>0</v>
       </c>
       <c r="AE199">
-        <v>3172</v>
+        <v>244</v>
       </c>
       <c r="AF199">
-        <v>6435</v>
+        <v>495</v>
       </c>
       <c r="AG199">
         <v>0</v>
       </c>
       <c r="AH199">
-        <v>10451.846262</v>
+        <v>803.9881740000002</v>
       </c>
       <c r="AI199">
-        <v>21203.54057250001</v>
+        <v>1631.0415825</v>
       </c>
       <c r="AJ199">
         <v>0</v>
@@ -26082,19 +26082,19 @@
         <v>0</v>
       </c>
       <c r="AE200">
-        <v>2071</v>
+        <v>109</v>
       </c>
       <c r="AF200">
-        <v>15485</v>
+        <v>815</v>
       </c>
       <c r="AG200">
         <v>0</v>
       </c>
       <c r="AH200">
-        <v>8295.226891</v>
+        <v>436.590889</v>
       </c>
       <c r="AI200">
-        <v>62023.944185</v>
+        <v>3264.418115</v>
       </c>
       <c r="AJ200">
         <v>0</v>
@@ -26198,19 +26198,19 @@
         <v>0</v>
       </c>
       <c r="AE201">
-        <v>738</v>
+        <v>82</v>
       </c>
       <c r="AF201">
-        <v>441</v>
+        <v>49</v>
       </c>
       <c r="AG201">
         <v>0</v>
       </c>
       <c r="AH201">
-        <v>3155.845932</v>
+        <v>350.649548</v>
       </c>
       <c r="AI201">
-        <v>1885.810374</v>
+        <v>209.534486</v>
       </c>
       <c r="AJ201">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>0</v>
       </c>
       <c r="AE202">
-        <v>506</v>
+        <v>46</v>
       </c>
       <c r="AF202">
-        <v>1914</v>
+        <v>174</v>
       </c>
       <c r="AG202">
         <v>0</v>
       </c>
       <c r="AH202">
-        <v>2709.767632</v>
+        <v>246.342512</v>
       </c>
       <c r="AI202">
-        <v>10249.990608</v>
+        <v>931.8173279999999</v>
       </c>
       <c r="AJ202">
         <v>0</v>
@@ -26430,19 +26430,19 @@
         <v>0</v>
       </c>
       <c r="AE203">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="AF203">
-        <v>3220</v>
+        <v>460</v>
       </c>
       <c r="AG203">
         <v>0</v>
       </c>
       <c r="AH203">
-        <v>961.3460219999999</v>
+        <v>137.335146</v>
       </c>
       <c r="AI203">
-        <v>14265.13452</v>
+        <v>2037.87636</v>
       </c>
       <c r="AJ203">
         <v>0</v>
@@ -26546,19 +26546,19 @@
         <v>0</v>
       </c>
       <c r="AE204">
-        <v>3080</v>
+        <v>154</v>
       </c>
       <c r="AF204">
-        <v>1680</v>
+        <v>84</v>
       </c>
       <c r="AG204">
         <v>0</v>
       </c>
       <c r="AH204">
-        <v>52137.36527999999</v>
+        <v>2606.868263999999</v>
       </c>
       <c r="AI204">
-        <v>28438.56287999999</v>
+        <v>1421.928144</v>
       </c>
       <c r="AJ204">
         <v>0</v>
@@ -26662,19 +26662,19 @@
         <v>0</v>
       </c>
       <c r="AE205">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="AF205">
-        <v>2006</v>
+        <v>1003</v>
       </c>
       <c r="AG205">
         <v>0</v>
       </c>
       <c r="AH205">
-        <v>499.156992</v>
+        <v>249.578496</v>
       </c>
       <c r="AI205">
-        <v>3911.362992</v>
+        <v>1955.681496</v>
       </c>
       <c r="AJ205">
         <v>0</v>
@@ -26778,19 +26778,19 @@
         <v>0</v>
       </c>
       <c r="AE206">
-        <v>1860</v>
+        <v>186</v>
       </c>
       <c r="AF206">
-        <v>4060</v>
+        <v>406</v>
       </c>
       <c r="AG206">
         <v>0</v>
       </c>
       <c r="AH206">
-        <v>18133.4376</v>
+        <v>1813.34376</v>
       </c>
       <c r="AI206">
-        <v>39581.58959999999</v>
+        <v>3958.158959999999</v>
       </c>
       <c r="AJ206">
         <v>0</v>
@@ -26894,19 +26894,19 @@
         <v>0</v>
       </c>
       <c r="AE207">
-        <v>7410</v>
+        <v>285</v>
       </c>
       <c r="AF207">
-        <v>17290</v>
+        <v>665</v>
       </c>
       <c r="AG207">
         <v>0</v>
       </c>
       <c r="AH207">
-        <v>34676.39175</v>
+        <v>1333.707375</v>
       </c>
       <c r="AI207">
-        <v>80911.58075000001</v>
+        <v>3111.983875</v>
       </c>
       <c r="AJ207">
         <v>0</v>
@@ -27010,19 +27010,19 @@
         <v>0</v>
       </c>
       <c r="AE208">
-        <v>2952</v>
+        <v>164</v>
       </c>
       <c r="AF208">
-        <v>5796</v>
+        <v>322</v>
       </c>
       <c r="AG208">
         <v>0</v>
       </c>
       <c r="AH208">
-        <v>22084.773984</v>
+        <v>1226.931888</v>
       </c>
       <c r="AI208">
-        <v>43361.56843199999</v>
+        <v>2408.976024</v>
       </c>
       <c r="AJ208">
         <v>0</v>
@@ -27126,19 +27126,19 @@
         <v>0</v>
       </c>
       <c r="AE209">
-        <v>18383</v>
+        <v>593</v>
       </c>
       <c r="AF209">
-        <v>14446</v>
+        <v>466</v>
       </c>
       <c r="AG209">
         <v>0</v>
       </c>
       <c r="AH209">
-        <v>201011.450354</v>
+        <v>6484.240334</v>
       </c>
       <c r="AI209">
-        <v>157961.780548</v>
+        <v>5095.541308</v>
       </c>
       <c r="AJ209">
         <v>0</v>
@@ -27358,19 +27358,19 @@
         <v>0</v>
       </c>
       <c r="AE211">
-        <v>73150</v>
+        <v>3325</v>
       </c>
       <c r="AF211">
-        <v>73172</v>
+        <v>3326</v>
       </c>
       <c r="AG211">
         <v>0</v>
       </c>
       <c r="AH211">
-        <v>279189.4105</v>
+        <v>12690.42775</v>
       </c>
       <c r="AI211">
-        <v>279273.37724</v>
+        <v>12694.24442</v>
       </c>
       <c r="AJ211">
         <v>0</v>
@@ -27474,19 +27474,19 @@
         <v>0</v>
       </c>
       <c r="AE212">
-        <v>101290</v>
+        <v>2894</v>
       </c>
       <c r="AF212">
-        <v>199920</v>
+        <v>5712</v>
       </c>
       <c r="AG212">
         <v>0</v>
       </c>
       <c r="AH212">
-        <v>182214.6326</v>
+        <v>5206.13236</v>
       </c>
       <c r="AI212">
-        <v>359644.0848</v>
+        <v>10275.54528</v>
       </c>
       <c r="AJ212">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="AE213">
-        <v>14638</v>
+        <v>563</v>
       </c>
       <c r="AF213">
-        <v>67574</v>
+        <v>2599</v>
       </c>
       <c r="AG213">
         <v>0</v>
       </c>
       <c r="AH213">
-        <v>53733.31678000001</v>
+        <v>2066.66603</v>
       </c>
       <c r="AI213">
-        <v>248051.31494</v>
+        <v>9540.435190000002</v>
       </c>
       <c r="AJ213">
         <v>0</v>
@@ -27706,19 +27706,19 @@
         <v>0</v>
       </c>
       <c r="AE214">
-        <v>1314</v>
+        <v>146</v>
       </c>
       <c r="AF214">
-        <v>6624</v>
+        <v>736</v>
       </c>
       <c r="AG214">
         <v>0</v>
       </c>
       <c r="AH214">
-        <v>3729.384945</v>
+        <v>414.3761050000001</v>
       </c>
       <c r="AI214">
-        <v>18800.18712</v>
+        <v>2088.90968</v>
       </c>
       <c r="AJ214">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="AE215">
-        <v>840</v>
+        <v>60</v>
       </c>
       <c r="AF215">
-        <v>3346</v>
+        <v>239</v>
       </c>
       <c r="AG215">
         <v>0</v>
       </c>
       <c r="AH215">
-        <v>13329.4161</v>
+        <v>952.1011500000001</v>
       </c>
       <c r="AI215">
-        <v>53095.50746500001</v>
+        <v>3792.536247500001</v>
       </c>
       <c r="AJ215">
         <v>0</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="AE216">
-        <v>1416</v>
+        <v>118</v>
       </c>
       <c r="AF216">
-        <v>3312</v>
+        <v>276</v>
       </c>
       <c r="AG216">
         <v>0</v>
       </c>
       <c r="AH216">
-        <v>4509.40776</v>
+        <v>375.78398</v>
       </c>
       <c r="AI216">
-        <v>10547.42832</v>
+        <v>878.95236</v>
       </c>
       <c r="AJ216">
         <v>0</v>

--- a/salida/reportes_Integral_valorizada.xlsx
+++ b/salida/reportes_Integral_valorizada.xlsx
@@ -127,7 +127,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
